--- a/3 Random Variables/Homework/JulySumofMVSDHW.xlsx
+++ b/3 Random Variables/Homework/JulySumofMVSDHW.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\edxtake2module1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Essential-Statistics-for-Data-Analysis-using-Excel\3 Random Variables\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Homework 3_3</t>
   </si>
@@ -72,12 +72,54 @@
   </si>
   <si>
     <t>variance and standard deviation of your winnings.</t>
+  </si>
+  <si>
+    <t>Dots</t>
+  </si>
+  <si>
+    <t>Prob</t>
+  </si>
+  <si>
+    <t>Mean=</t>
+  </si>
+  <si>
+    <t>Var=</t>
+  </si>
+  <si>
+    <t>Var 100=</t>
+  </si>
+  <si>
+    <t>Std=</t>
+  </si>
+  <si>
+    <t>Mean100=</t>
+  </si>
+  <si>
+    <t>Mean30=</t>
+  </si>
+  <si>
+    <t>Var30=</t>
+  </si>
+  <si>
+    <t>Std30=</t>
+  </si>
+  <si>
+    <t>R$</t>
+  </si>
+  <si>
+    <t>Var100=</t>
+  </si>
+  <si>
+    <t>Std100=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -125,11 +167,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,26 +452,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:G22"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -438,7 +481,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -448,7 +491,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -458,7 +501,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -468,7 +511,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -478,7 +521,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -488,7 +531,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -498,7 +541,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -508,7 +551,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -518,7 +561,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -528,7 +571,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -538,7 +581,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -549,7 +592,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -560,7 +603,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -571,7 +614,252 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C20">
+        <f>(A20-$B$27)^2</f>
+        <v>6.25</v>
+      </c>
+      <c r="K20">
+        <v>35</v>
+      </c>
+      <c r="L20" s="4">
+        <f>1/38</f>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="M20">
+        <f>(K20-$L$23)^2</f>
+        <v>1228.6869806094185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ref="B21:B25" si="0">1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:C25" si="1">(A21-$B$27)^2</f>
+        <v>2.25</v>
+      </c>
+      <c r="K21">
+        <v>-1</v>
+      </c>
+      <c r="L21">
+        <f>37/38</f>
+        <v>0.97368421052631582</v>
+      </c>
+      <c r="M21">
+        <f>(K21-$L$23)^2</f>
+        <v>0.8975069252077561</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="K23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23">
+        <f>SUMPRODUCT(K20:K21,L20:L21)</f>
+        <v>-5.2631578947368474E-2</v>
+      </c>
+      <c r="M23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N23">
+        <f>L23*100</f>
+        <v>-5.2631578947368478</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+      <c r="K24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24">
+        <f>SUMPRODUCT(L20:L21,M20:M21)</f>
+        <v>33.207756232686982</v>
+      </c>
+      <c r="M24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24">
+        <f>100*L24</f>
+        <v>3320.7756232686984</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
+      </c>
+      <c r="K25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25">
+        <f>SQRT(L24)</f>
+        <v>5.7626171339667343</v>
+      </c>
+      <c r="M25" t="s">
+        <v>28</v>
+      </c>
+      <c r="N25">
+        <f>SQRT(N24)</f>
+        <v>57.626171339667344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27">
+        <f>SUMPRODUCT(A20:A25,B20:B25)</f>
+        <v>3.5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27">
+        <f>100*B27</f>
+        <v>350</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+      <c r="H27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27">
+        <f>30*G27</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <f>SUMPRODUCT(B20:B25,C20:C25)</f>
+        <v>2.9166666666666665</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <f>B28*100</f>
+        <v>291.66666666666663</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28">
+        <f>G29^2</f>
+        <v>9</v>
+      </c>
+      <c r="H28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28">
+        <f>30*G28</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29">
+        <f>SQRT(B28)</f>
+        <v>1.707825127659933</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29">
+        <f>SQRT(D28)</f>
+        <v>17.078251276599328</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29">
+        <f>SQRT(I28)</f>
+        <v>16.431676725154983</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>